--- a/data/censustables/ACS_17_5YR_race_includinglatinx.xlsx
+++ b/data/censustables/ACS_17_5YR_race_includinglatinx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victoria\Desktop\THESIS\Data\censusdata\ACS_17_5YR_B03002_HISPANIC OR LATINO ORIGIN BY RACE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victoria\Desktop\THESIS\Analysis\gitproject\park-equity-atx\data\censustables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36F52F01-2889-49D9-B610-1911981D60A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBA4FEF-E3ED-4781-9E26-13588171FC75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7253" yWindow="4935" windowWidth="13695" windowHeight="8527" xr2:uid="{AE69EF66-189F-450A-A01A-8664C1FCEC6E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{AE69EF66-189F-450A-A01A-8664C1FCEC6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2748,37 +2748,37 @@
     <t>1500000US484910216032</t>
   </si>
   <si>
-    <t>Estimate; Total:</t>
-  </si>
-  <si>
-    <t>Estimate; Not Hispanic or Latino:</t>
-  </si>
-  <si>
-    <t>Estimate; Not Hispanic or Latino: - White alone</t>
-  </si>
-  <si>
-    <t>Estimate; Not Hispanic or Latino: - Black or African American alone</t>
-  </si>
-  <si>
-    <t>Estimate; Not Hispanic or Latino: - American Indian and Alaska Native alone</t>
-  </si>
-  <si>
-    <t>Estimate; Not Hispanic or Latino: - Asian alone</t>
-  </si>
-  <si>
-    <t>Estimate; Not Hispanic or Latino: - Native Hawaiian and Other Pacific Islander alone</t>
-  </si>
-  <si>
-    <t>Estimate; Not Hispanic or Latino: - Some other race alone</t>
-  </si>
-  <si>
-    <t>Estimate; Not Hispanic or Latino: - Two or more races:</t>
-  </si>
-  <si>
-    <t>Estimate; Hispanic or Latino:</t>
-  </si>
-  <si>
     <t>Sum of Non-Hispanic and Hispanic (Total Pop)</t>
+  </si>
+  <si>
+    <t>Total_POP</t>
+  </si>
+  <si>
+    <t>Not Hispanic or Latino:</t>
+  </si>
+  <si>
+    <t>White; Not Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>Black or African American; Not Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>American Indian and Alaska Native; Not Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>Asian; Not Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>Native Hawaiian and Other Pacific Islander; Not Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>Some other race alone; Not Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>Two or more races; Not Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>Hispanic or Latino:</t>
   </si>
 </sst>
 </file>
@@ -3140,7 +3140,7 @@
   <dimension ref="A1:M904"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3165,37 +3165,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>905</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
@@ -41139,6 +41139,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100199F9F2F5AF6D945A9B064753518EAAB" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f5634d4144f9f3c848a89105a415f6cf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="470c777f8d38c33ec5182badeca36650">
     <xsd:element name="properties">
@@ -41252,12 +41258,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F41EFDC-3020-46F8-99CB-911E0D45A394}">
   <ds:schemaRefs>
@@ -41267,6 +41267,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4611F071-E6D6-491F-AC2C-1CC05587A78D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AABCBBFA-270E-4750-8DB5-86EF3BFBAEBE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41280,19 +41295,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4611F071-E6D6-491F-AC2C-1CC05587A78D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>